--- a/SchedulingData/dynamic12/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,93 +466,93 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.52</v>
+        <v>245.08</v>
       </c>
       <c r="D2" t="n">
-        <v>297.42</v>
+        <v>282.98</v>
       </c>
       <c r="E2" t="n">
-        <v>13.428</v>
+        <v>14.352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>222.32</v>
+        <v>243.8</v>
       </c>
       <c r="D3" t="n">
-        <v>259.24</v>
+        <v>312</v>
       </c>
       <c r="E3" t="n">
-        <v>16.996</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>259.24</v>
+        <v>230.14</v>
       </c>
       <c r="D4" t="n">
-        <v>300.74</v>
+        <v>287.4</v>
       </c>
       <c r="E4" t="n">
-        <v>14.476</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>297.42</v>
+        <v>209.62</v>
       </c>
       <c r="D5" t="n">
-        <v>359.82</v>
+        <v>264.18</v>
       </c>
       <c r="E5" t="n">
-        <v>9.788</v>
+        <v>11.772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>210.68</v>
+        <v>224.94</v>
       </c>
       <c r="D6" t="n">
-        <v>255.04</v>
+        <v>275.94</v>
       </c>
       <c r="E6" t="n">
-        <v>11.216</v>
+        <v>14.056</v>
       </c>
     </row>
     <row r="7">
@@ -561,112 +561,112 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>255.04</v>
+        <v>312</v>
       </c>
       <c r="D7" t="n">
-        <v>320.04</v>
+        <v>398.7</v>
       </c>
       <c r="E7" t="n">
-        <v>8.795999999999999</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>320.04</v>
+        <v>282.98</v>
       </c>
       <c r="D8" t="n">
-        <v>373.9</v>
+        <v>317.6</v>
       </c>
       <c r="E8" t="n">
-        <v>5.52</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>300.74</v>
+        <v>398.7</v>
       </c>
       <c r="D9" t="n">
-        <v>362.74</v>
+        <v>433.32</v>
       </c>
       <c r="E9" t="n">
-        <v>11.396</v>
+        <v>7.508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>373.9</v>
+        <v>264.18</v>
       </c>
       <c r="D10" t="n">
-        <v>422.34</v>
+        <v>321.78</v>
       </c>
       <c r="E10" t="n">
-        <v>2.296</v>
+        <v>9.612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>359.82</v>
+        <v>275.94</v>
       </c>
       <c r="D11" t="n">
-        <v>392.82</v>
+        <v>317.34</v>
       </c>
       <c r="E11" t="n">
-        <v>7.628</v>
+        <v>11.536</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>214.8</v>
+        <v>321.78</v>
       </c>
       <c r="D12" t="n">
-        <v>279.26</v>
+        <v>379.08</v>
       </c>
       <c r="E12" t="n">
-        <v>16.064</v>
+        <v>6.492</v>
       </c>
     </row>
     <row r="13">
@@ -675,245 +675,245 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>201.86</v>
+        <v>287.4</v>
       </c>
       <c r="D13" t="n">
-        <v>267.66</v>
+        <v>341.12</v>
       </c>
       <c r="E13" t="n">
-        <v>17.724</v>
+        <v>11.628</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>279.26</v>
+        <v>341.12</v>
       </c>
       <c r="D14" t="n">
-        <v>313.38</v>
+        <v>403.32</v>
       </c>
       <c r="E14" t="n">
-        <v>13.292</v>
+        <v>8.548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>267.66</v>
+        <v>379.08</v>
       </c>
       <c r="D15" t="n">
-        <v>313.68</v>
+        <v>431.38</v>
       </c>
       <c r="E15" t="n">
-        <v>14.252</v>
+        <v>3.372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>362.74</v>
+        <v>433.32</v>
       </c>
       <c r="D16" t="n">
-        <v>437.34</v>
+        <v>506.62</v>
       </c>
       <c r="E16" t="n">
-        <v>7.556</v>
+        <v>3.308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>313.38</v>
+        <v>317.6</v>
       </c>
       <c r="D17" t="n">
-        <v>375.58</v>
+        <v>378.84</v>
       </c>
       <c r="E17" t="n">
-        <v>10.172</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>232.48</v>
+        <v>403.32</v>
       </c>
       <c r="D18" t="n">
-        <v>306.42</v>
+        <v>464.84</v>
       </c>
       <c r="E18" t="n">
-        <v>10.688</v>
+        <v>5.996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>313.68</v>
+        <v>263.62</v>
       </c>
       <c r="D19" t="n">
-        <v>371.3</v>
+        <v>348.72</v>
       </c>
       <c r="E19" t="n">
-        <v>10.6</v>
+        <v>12.728</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>306.42</v>
+        <v>348.72</v>
       </c>
       <c r="D20" t="n">
-        <v>375.84</v>
+        <v>402.58</v>
       </c>
       <c r="E20" t="n">
-        <v>8.356</v>
+        <v>9.452</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>422.34</v>
+        <v>402.58</v>
       </c>
       <c r="D21" t="n">
-        <v>519.25</v>
+        <v>442.04</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>6.636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>519.25</v>
+        <v>378.84</v>
       </c>
       <c r="D22" t="n">
-        <v>584.41</v>
+        <v>423.28</v>
       </c>
       <c r="E22" t="n">
-        <v>27.624</v>
+        <v>5.692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.58</v>
+        <v>423.28</v>
       </c>
       <c r="D23" t="n">
-        <v>435.58</v>
+        <v>486.82</v>
       </c>
       <c r="E23" t="n">
-        <v>5.792</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>371.3</v>
+        <v>317.34</v>
       </c>
       <c r="D24" t="n">
-        <v>448</v>
+        <v>352.4</v>
       </c>
       <c r="E24" t="n">
-        <v>7.52</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>392.82</v>
+        <v>352.4</v>
       </c>
       <c r="D25" t="n">
-        <v>440.08</v>
+        <v>402.1</v>
       </c>
       <c r="E25" t="n">
-        <v>5.032</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="26">
@@ -926,89 +926,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>448</v>
+        <v>464.84</v>
       </c>
       <c r="D26" t="n">
-        <v>524.34</v>
+        <v>516.38</v>
       </c>
       <c r="E26" t="n">
-        <v>4.496</v>
+        <v>2.972</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>524.34</v>
+        <v>442.04</v>
       </c>
       <c r="D27" t="n">
-        <v>587.14</v>
+        <v>493.94</v>
       </c>
       <c r="E27" t="n">
-        <v>2.336</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>6</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>pond7</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>437.34</v>
-      </c>
-      <c r="D28" t="n">
-        <v>503.94</v>
-      </c>
-      <c r="E28" t="n">
-        <v>4.476</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>pond30</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>435.58</v>
-      </c>
-      <c r="D29" t="n">
-        <v>480</v>
-      </c>
-      <c r="E29" t="n">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>pond42</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>375.84</v>
-      </c>
-      <c r="D30" t="n">
-        <v>427.28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5.332</v>
+        <v>3.556</v>
       </c>
     </row>
   </sheetData>
